--- a/RevitDynamo/AllTogether.xlsx
+++ b/RevitDynamo/AllTogether.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmsil\Desktop\bsp3\RevitDynamo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3DA8BB-5C9C-4ACB-8CBF-2E49353E1C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28097326-CCDF-45CD-837A-4859F65CC907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9105" yWindow="4440" windowWidth="28800" windowHeight="15345" xr2:uid="{A7A23B64-5B2A-4164-A763-E7FBE671D2B7}"/>
+    <workbookView xWindow="7710" yWindow="4605" windowWidth="14415" windowHeight="15345" xr2:uid="{A7A23B64-5B2A-4164-A763-E7FBE671D2B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Wall" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="191">
   <si>
     <t>StairsID</t>
   </si>
@@ -91,511 +91,529 @@
     <t>Emplacement extérieur</t>
   </si>
   <si>
+    <t>ElementID</t>
+  </si>
+  <si>
+    <t>Family Type: H228_R18, Family: STU_F_SIMP_STORE</t>
+  </si>
+  <si>
+    <t>WindowHeight</t>
+  </si>
+  <si>
+    <t>VectorY</t>
+  </si>
+  <si>
+    <t>81.157,</t>
+  </si>
+  <si>
+    <t>15.105,</t>
+  </si>
+  <si>
+    <t>-689.758,</t>
+  </si>
+  <si>
+    <t>-1589.138,</t>
+  </si>
+  <si>
+    <t>-1559.192,</t>
+  </si>
+  <si>
+    <t>-235.077,</t>
+  </si>
+  <si>
+    <t>2.263,</t>
+  </si>
+  <si>
+    <t>-644.090,</t>
+  </si>
+  <si>
+    <t>235.077,</t>
+  </si>
+  <si>
+    <t>-27.347,</t>
+  </si>
+  <si>
+    <t>22.762,</t>
+  </si>
+  <si>
+    <t>232.082,</t>
+  </si>
+  <si>
+    <t>15.374,</t>
+  </si>
+  <si>
+    <t>503.343,</t>
+  </si>
+  <si>
+    <t>-20.437,</t>
+  </si>
+  <si>
+    <t>21.313,</t>
+  </si>
+  <si>
+    <t>213.116,</t>
+  </si>
+  <si>
+    <t>38.046,</t>
+  </si>
+  <si>
+    <t>12.213,</t>
+  </si>
+  <si>
+    <t>-12.362,</t>
+  </si>
+  <si>
+    <t>-31.942,</t>
+  </si>
+  <si>
+    <t>-15.045,</t>
+  </si>
+  <si>
+    <t>14.475,</t>
+  </si>
+  <si>
+    <t>-79.779,</t>
+  </si>
+  <si>
+    <t>36.684,</t>
+  </si>
+  <si>
+    <t>15.195,</t>
+  </si>
+  <si>
+    <t>-21.518,</t>
+  </si>
+  <si>
+    <t>680.025,</t>
+  </si>
+  <si>
+    <t>21.593,</t>
+  </si>
+  <si>
+    <t>-217.109,</t>
+  </si>
+  <si>
+    <t>-32.695,</t>
+  </si>
+  <si>
+    <t>-283.949,</t>
+  </si>
+  <si>
+    <t>23.391,</t>
+  </si>
+  <si>
+    <t>24.560,</t>
+  </si>
+  <si>
+    <t>-232.081,</t>
+  </si>
+  <si>
+    <t>-495.357,</t>
+  </si>
+  <si>
+    <t>-672.039,</t>
+  </si>
+  <si>
+    <t>232.042,</t>
+  </si>
+  <si>
+    <t>520.273,</t>
+  </si>
+  <si>
+    <t>-22.417,</t>
+  </si>
+  <si>
+    <t>408.764,</t>
+  </si>
+  <si>
+    <t>11.598,</t>
+  </si>
+  <si>
+    <t>31.942,</t>
+  </si>
+  <si>
+    <t>-11.478,</t>
+  </si>
+  <si>
+    <t>11.478,</t>
+  </si>
+  <si>
+    <t>-674.036,</t>
+  </si>
+  <si>
+    <t>-2.263,</t>
+  </si>
+  <si>
+    <t>-201.138,</t>
+  </si>
+  <si>
+    <t>-7.387,</t>
+  </si>
+  <si>
+    <t>-413.046,</t>
+  </si>
+  <si>
+    <t>288.231,</t>
+  </si>
+  <si>
+    <t>14.985,</t>
+  </si>
+  <si>
+    <t>130.265,</t>
+  </si>
+  <si>
+    <t>6.354,</t>
+  </si>
+  <si>
+    <t>-6.833,</t>
+  </si>
+  <si>
+    <t>-136.255,</t>
+  </si>
+  <si>
+    <t>48.413,</t>
+  </si>
+  <si>
+    <t>-8.274,</t>
+  </si>
+  <si>
+    <t>33.440,</t>
+  </si>
+  <si>
+    <t>6.024,</t>
+  </si>
+  <si>
+    <t>7.744,</t>
+  </si>
+  <si>
+    <t>-33.440,</t>
+  </si>
+  <si>
+    <t>5.440,</t>
+  </si>
+  <si>
+    <t>5.155,</t>
+  </si>
+  <si>
+    <t>7.387,</t>
+  </si>
+  <si>
+    <t>33.190,</t>
+  </si>
+  <si>
+    <t>-76.362,</t>
+  </si>
+  <si>
+    <t>-33.190,</t>
+  </si>
+  <si>
+    <t>76.362,</t>
+  </si>
+  <si>
+    <t>-288.231,</t>
+  </si>
+  <si>
+    <t>-505.340,</t>
+  </si>
+  <si>
+    <t>201.138,</t>
+  </si>
+  <si>
+    <t>-2331.041,</t>
+  </si>
+  <si>
+    <t>VectorZ</t>
+  </si>
+  <si>
+    <t>0.000,</t>
+  </si>
+  <si>
+    <t>VectorX</t>
+  </si>
+  <si>
+    <t>-1351.566,</t>
+  </si>
+  <si>
+    <t>-1351.568,</t>
+  </si>
+  <si>
+    <t>-251.547,</t>
+  </si>
+  <si>
+    <t>-41.418,</t>
+  </si>
+  <si>
+    <t>-95.423,</t>
+  </si>
+  <si>
+    <t>-93.625,</t>
+  </si>
+  <si>
+    <t>-14.116,</t>
+  </si>
+  <si>
+    <t>-37.682,</t>
+  </si>
+  <si>
+    <t>-38.676,</t>
+  </si>
+  <si>
+    <t>14.116,</t>
+  </si>
+  <si>
+    <t>455.430,</t>
+  </si>
+  <si>
+    <t>-379.067,</t>
+  </si>
+  <si>
+    <t>13.936,</t>
+  </si>
+  <si>
+    <t>-256.039,</t>
+  </si>
+  <si>
+    <t>30.224,</t>
+  </si>
+  <si>
+    <t>340.352,</t>
+  </si>
+  <si>
+    <t>-354.931,</t>
+  </si>
+  <si>
+    <t>12.797,</t>
+  </si>
+  <si>
+    <t>-633.609,</t>
+  </si>
+  <si>
+    <t>-203.384,</t>
+  </si>
+  <si>
+    <t>205.880,</t>
+  </si>
+  <si>
+    <t>-1.918,</t>
+  </si>
+  <si>
+    <t>250.549,</t>
+  </si>
+  <si>
+    <t>-241.066,</t>
+  </si>
+  <si>
+    <t>1328.607,</t>
+  </si>
+  <si>
+    <t>-354.932,</t>
+  </si>
+  <si>
+    <t>2.203,</t>
+  </si>
+  <si>
+    <t>-253.044,</t>
+  </si>
+  <si>
+    <t>358.355,</t>
+  </si>
+  <si>
+    <t>40.833,</t>
+  </si>
+  <si>
+    <t>-359.602,</t>
+  </si>
+  <si>
+    <t>-13.037,</t>
+  </si>
+  <si>
+    <t>544.490,</t>
+  </si>
+  <si>
+    <t>-17.050,</t>
+  </si>
+  <si>
+    <t>-389.548,</t>
+  </si>
+  <si>
+    <t>-409.013,</t>
+  </si>
+  <si>
+    <t>-379.065,</t>
+  </si>
+  <si>
+    <t>-13.936,</t>
+  </si>
+  <si>
+    <t>-256.036,</t>
+  </si>
+  <si>
+    <t>-29.745,</t>
+  </si>
+  <si>
+    <t>250.548,</t>
+  </si>
+  <si>
+    <t>-40.354,</t>
+  </si>
+  <si>
+    <t>13.933,</t>
+  </si>
+  <si>
+    <t>31.241,</t>
+  </si>
+  <si>
+    <t>373.328,</t>
+  </si>
+  <si>
+    <t>24.545,</t>
+  </si>
+  <si>
+    <t>-193.153,</t>
+  </si>
+  <si>
+    <t>1.918,</t>
+  </si>
+  <si>
+    <t>191.155,</t>
+  </si>
+  <si>
+    <t>-191.155,</t>
+  </si>
+  <si>
+    <t>-203.383,</t>
+  </si>
+  <si>
+    <t>-37.684,</t>
+  </si>
+  <si>
+    <t>-40.474,</t>
+  </si>
+  <si>
+    <t>37.684,</t>
+  </si>
+  <si>
+    <t>-12.078,</t>
+  </si>
+  <si>
+    <t>123.028,</t>
+  </si>
+  <si>
+    <t>-24.802,</t>
+  </si>
+  <si>
+    <t>17.307,</t>
+  </si>
+  <si>
+    <t>-389.553,</t>
+  </si>
+  <si>
+    <t>-249.553,</t>
+  </si>
+  <si>
+    <t>7.822,</t>
+  </si>
+  <si>
+    <t>-105.809,</t>
+  </si>
+  <si>
+    <t>113.795,</t>
+  </si>
+  <si>
+    <t>-8.182,</t>
+  </si>
+  <si>
+    <t>2.907,</t>
+  </si>
+  <si>
+    <t>137.786,</t>
+  </si>
+  <si>
+    <t>2.008,</t>
+  </si>
+  <si>
+    <t>-100.319,</t>
+  </si>
+  <si>
+    <t>-128.973,</t>
+  </si>
+  <si>
+    <t>-2.008,</t>
+  </si>
+  <si>
+    <t>-90.602,</t>
+  </si>
+  <si>
+    <t>-85.845,</t>
+  </si>
+  <si>
+    <t>-123.028,</t>
+  </si>
+  <si>
+    <t>1.993,</t>
+  </si>
+  <si>
+    <t>-4.585,</t>
+  </si>
+  <si>
+    <t>-1.993,</t>
+  </si>
+  <si>
+    <t>4.585,</t>
+  </si>
+  <si>
+    <t>-17.307,</t>
+  </si>
+  <si>
+    <t>-30.344,</t>
+  </si>
+  <si>
+    <t>12.078,</t>
+  </si>
+  <si>
+    <t>492.497,</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>UnconnectedHeight</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>EndPointx</t>
+  </si>
+  <si>
+    <t>EndPointz</t>
+  </si>
+  <si>
+    <t>EndPointy</t>
+  </si>
+  <si>
+    <t>StartPointz</t>
+  </si>
+  <si>
+    <t>StartPointy</t>
+  </si>
+  <si>
+    <t>StartPointx</t>
+  </si>
+  <si>
     <t>WindowWidth</t>
   </si>
   <si>
-    <t>ElementID</t>
-  </si>
-  <si>
     <t>WindowArea</t>
   </si>
   <si>
     <t>WindowLongId</t>
   </si>
   <si>
-    <t>Family Type: H228_R18, Family: STU_F_SIMP_STORE</t>
-  </si>
-  <si>
-    <t>WindowHeight</t>
-  </si>
-  <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>VectorY</t>
-  </si>
-  <si>
-    <t>81.157,</t>
-  </si>
-  <si>
-    <t>15.105,</t>
-  </si>
-  <si>
-    <t>-689.758,</t>
-  </si>
-  <si>
-    <t>-1589.138,</t>
-  </si>
-  <si>
-    <t>-1559.192,</t>
-  </si>
-  <si>
-    <t>-235.077,</t>
-  </si>
-  <si>
-    <t>2.263,</t>
-  </si>
-  <si>
-    <t>-644.090,</t>
-  </si>
-  <si>
-    <t>235.077,</t>
-  </si>
-  <si>
-    <t>-27.347,</t>
-  </si>
-  <si>
-    <t>22.762,</t>
-  </si>
-  <si>
-    <t>232.082,</t>
-  </si>
-  <si>
-    <t>15.374,</t>
-  </si>
-  <si>
-    <t>503.343,</t>
-  </si>
-  <si>
-    <t>-20.437,</t>
-  </si>
-  <si>
-    <t>21.313,</t>
-  </si>
-  <si>
-    <t>213.116,</t>
-  </si>
-  <si>
-    <t>38.046,</t>
-  </si>
-  <si>
-    <t>12.213,</t>
-  </si>
-  <si>
-    <t>-12.362,</t>
-  </si>
-  <si>
-    <t>-31.942,</t>
-  </si>
-  <si>
-    <t>-15.045,</t>
-  </si>
-  <si>
-    <t>14.475,</t>
-  </si>
-  <si>
-    <t>-79.779,</t>
-  </si>
-  <si>
-    <t>36.684,</t>
-  </si>
-  <si>
-    <t>15.195,</t>
-  </si>
-  <si>
-    <t>-21.518,</t>
-  </si>
-  <si>
-    <t>680.025,</t>
-  </si>
-  <si>
-    <t>21.593,</t>
-  </si>
-  <si>
-    <t>-217.109,</t>
-  </si>
-  <si>
-    <t>-32.695,</t>
-  </si>
-  <si>
-    <t>-283.949,</t>
-  </si>
-  <si>
-    <t>23.391,</t>
-  </si>
-  <si>
-    <t>24.560,</t>
-  </si>
-  <si>
-    <t>-232.081,</t>
-  </si>
-  <si>
-    <t>-495.357,</t>
-  </si>
-  <si>
-    <t>-672.039,</t>
-  </si>
-  <si>
-    <t>232.042,</t>
-  </si>
-  <si>
-    <t>520.273,</t>
-  </si>
-  <si>
-    <t>-22.417,</t>
-  </si>
-  <si>
-    <t>408.764,</t>
-  </si>
-  <si>
-    <t>11.598,</t>
-  </si>
-  <si>
-    <t>31.942,</t>
-  </si>
-  <si>
-    <t>-11.478,</t>
-  </si>
-  <si>
-    <t>11.478,</t>
-  </si>
-  <si>
-    <t>-674.036,</t>
-  </si>
-  <si>
-    <t>-2.263,</t>
-  </si>
-  <si>
-    <t>-201.138,</t>
-  </si>
-  <si>
-    <t>-7.387,</t>
-  </si>
-  <si>
-    <t>-413.046,</t>
-  </si>
-  <si>
-    <t>288.231,</t>
-  </si>
-  <si>
-    <t>14.985,</t>
-  </si>
-  <si>
-    <t>130.265,</t>
-  </si>
-  <si>
-    <t>6.354,</t>
-  </si>
-  <si>
-    <t>-6.833,</t>
-  </si>
-  <si>
-    <t>-136.255,</t>
-  </si>
-  <si>
-    <t>48.413,</t>
-  </si>
-  <si>
-    <t>-8.274,</t>
-  </si>
-  <si>
-    <t>33.440,</t>
-  </si>
-  <si>
-    <t>6.024,</t>
-  </si>
-  <si>
-    <t>7.744,</t>
-  </si>
-  <si>
-    <t>-33.440,</t>
-  </si>
-  <si>
-    <t>5.440,</t>
-  </si>
-  <si>
-    <t>5.155,</t>
-  </si>
-  <si>
-    <t>7.387,</t>
-  </si>
-  <si>
-    <t>33.190,</t>
-  </si>
-  <si>
-    <t>-76.362,</t>
-  </si>
-  <si>
-    <t>-33.190,</t>
-  </si>
-  <si>
-    <t>76.362,</t>
-  </si>
-  <si>
-    <t>-288.231,</t>
-  </si>
-  <si>
-    <t>-505.340,</t>
-  </si>
-  <si>
-    <t>201.138,</t>
-  </si>
-  <si>
-    <t>-2331.041,</t>
-  </si>
-  <si>
-    <t>VectorZ</t>
-  </si>
-  <si>
-    <t>0.000,</t>
-  </si>
-  <si>
-    <t>VectorX</t>
-  </si>
-  <si>
-    <t>-1351.566,</t>
-  </si>
-  <si>
-    <t>-1351.568,</t>
-  </si>
-  <si>
-    <t>-251.547,</t>
-  </si>
-  <si>
-    <t>-41.418,</t>
-  </si>
-  <si>
-    <t>-95.423,</t>
-  </si>
-  <si>
-    <t>-93.625,</t>
-  </si>
-  <si>
-    <t>-14.116,</t>
-  </si>
-  <si>
-    <t>-37.682,</t>
-  </si>
-  <si>
-    <t>-38.676,</t>
-  </si>
-  <si>
-    <t>14.116,</t>
-  </si>
-  <si>
-    <t>455.430,</t>
-  </si>
-  <si>
-    <t>-379.067,</t>
-  </si>
-  <si>
-    <t>13.936,</t>
-  </si>
-  <si>
-    <t>-256.039,</t>
-  </si>
-  <si>
-    <t>30.224,</t>
-  </si>
-  <si>
-    <t>340.352,</t>
-  </si>
-  <si>
-    <t>-354.931,</t>
-  </si>
-  <si>
-    <t>12.797,</t>
-  </si>
-  <si>
-    <t>-633.609,</t>
-  </si>
-  <si>
-    <t>-203.384,</t>
-  </si>
-  <si>
-    <t>205.880,</t>
-  </si>
-  <si>
-    <t>-1.918,</t>
-  </si>
-  <si>
-    <t>250.549,</t>
-  </si>
-  <si>
-    <t>-241.066,</t>
-  </si>
-  <si>
-    <t>1328.607,</t>
-  </si>
-  <si>
-    <t>-354.932,</t>
-  </si>
-  <si>
-    <t>2.203,</t>
-  </si>
-  <si>
-    <t>-253.044,</t>
-  </si>
-  <si>
-    <t>358.355,</t>
-  </si>
-  <si>
-    <t>40.833,</t>
-  </si>
-  <si>
-    <t>-359.602,</t>
-  </si>
-  <si>
-    <t>-13.037,</t>
-  </si>
-  <si>
-    <t>544.490,</t>
-  </si>
-  <si>
-    <t>-17.050,</t>
-  </si>
-  <si>
-    <t>-389.548,</t>
-  </si>
-  <si>
-    <t>-409.013,</t>
-  </si>
-  <si>
-    <t>-379.065,</t>
-  </si>
-  <si>
-    <t>-13.936,</t>
-  </si>
-  <si>
-    <t>-256.036,</t>
-  </si>
-  <si>
-    <t>-29.745,</t>
-  </si>
-  <si>
-    <t>250.548,</t>
-  </si>
-  <si>
-    <t>-40.354,</t>
-  </si>
-  <si>
-    <t>13.933,</t>
-  </si>
-  <si>
-    <t>31.241,</t>
-  </si>
-  <si>
-    <t>373.328,</t>
-  </si>
-  <si>
-    <t>24.545,</t>
-  </si>
-  <si>
-    <t>-193.153,</t>
-  </si>
-  <si>
-    <t>1.918,</t>
-  </si>
-  <si>
-    <t>191.155,</t>
-  </si>
-  <si>
-    <t>-191.155,</t>
-  </si>
-  <si>
-    <t>-203.383,</t>
-  </si>
-  <si>
-    <t>-37.684,</t>
-  </si>
-  <si>
-    <t>-40.474,</t>
-  </si>
-  <si>
-    <t>37.684,</t>
-  </si>
-  <si>
-    <t>-12.078,</t>
-  </si>
-  <si>
-    <t>123.028,</t>
-  </si>
-  <si>
-    <t>-24.802,</t>
-  </si>
-  <si>
-    <t>17.307,</t>
-  </si>
-  <si>
-    <t>-389.553,</t>
-  </si>
-  <si>
-    <t>-249.553,</t>
-  </si>
-  <si>
-    <t>7.822,</t>
-  </si>
-  <si>
-    <t>-105.809,</t>
-  </si>
-  <si>
-    <t>113.795,</t>
-  </si>
-  <si>
-    <t>-8.182,</t>
-  </si>
-  <si>
-    <t>2.907,</t>
-  </si>
-  <si>
-    <t>137.786,</t>
-  </si>
-  <si>
-    <t>2.008,</t>
-  </si>
-  <si>
-    <t>-100.319,</t>
-  </si>
-  <si>
-    <t>-128.973,</t>
-  </si>
-  <si>
-    <t>-2.008,</t>
-  </si>
-  <si>
-    <t>-90.602,</t>
-  </si>
-  <si>
-    <t>-85.845,</t>
-  </si>
-  <si>
-    <t>-123.028,</t>
-  </si>
-  <si>
-    <t>1.993,</t>
-  </si>
-  <si>
-    <t>-4.585,</t>
-  </si>
-  <si>
-    <t>-1.993,</t>
-  </si>
-  <si>
-    <t>4.585,</t>
-  </si>
-  <si>
-    <t>-17.307,</t>
-  </si>
-  <si>
-    <t>-30.344,</t>
-  </si>
-  <si>
-    <t>12.078,</t>
-  </si>
-  <si>
-    <t>492.497,</t>
-  </si>
-  <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>UnconnectedHeight</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Width</t>
   </si>
 </sst>
 </file>
@@ -947,50 +965,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B344F34B-228C-4475-BC9D-74856CAA60FC}">
-  <dimension ref="A1:I106"/>
+  <dimension ref="A1:O106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L1" t="s">
         <v>184</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N1" t="s">
+        <v>183</v>
+      </c>
+      <c r="O1" t="s">
         <v>182</v>
       </c>
-      <c r="I1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D2">
         <v>1441841</v>
@@ -1010,16 +1046,34 @@
       <c r="I2">
         <v>16.2367431216109</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>20087.561000000002</v>
+      </c>
+      <c r="K2">
+        <v>20354.113000000001</v>
+      </c>
+      <c r="L2">
+        <v>58</v>
+      </c>
+      <c r="M2">
+        <v>18735.994999999999</v>
+      </c>
+      <c r="N2">
+        <v>20435.271000000001</v>
+      </c>
+      <c r="O2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D3">
         <v>1441842</v>
@@ -1039,16 +1093,34 @@
       <c r="I3">
         <v>16.162337518482101</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>20526.161</v>
+      </c>
+      <c r="K3">
+        <v>23487.457999999999</v>
+      </c>
+      <c r="L3">
+        <v>58</v>
+      </c>
+      <c r="M3">
+        <v>19174.593000000001</v>
+      </c>
+      <c r="N3">
+        <v>23568.615000000002</v>
+      </c>
+      <c r="O3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D4">
         <v>1441843</v>
@@ -1068,16 +1140,34 @@
       <c r="I4">
         <v>4.1070062607188103</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>19080.969000000001</v>
+      </c>
+      <c r="K4">
+        <v>22009.423999999999</v>
+      </c>
+      <c r="L4">
+        <v>58</v>
+      </c>
+      <c r="M4">
+        <v>18829.420999999998</v>
+      </c>
+      <c r="N4">
+        <v>22024.527999999998</v>
+      </c>
+      <c r="O4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D5">
         <v>1441846</v>
@@ -1097,16 +1187,34 @@
       <c r="I5">
         <v>4.8916230601564603</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>20128.977999999999</v>
+      </c>
+      <c r="K5">
+        <v>21043.870999999999</v>
+      </c>
+      <c r="L5">
+        <v>58</v>
+      </c>
+      <c r="M5">
+        <v>20087.561000000002</v>
+      </c>
+      <c r="N5">
+        <v>20354.113000000001</v>
+      </c>
+      <c r="O5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D6">
         <v>1441847</v>
@@ -1126,16 +1234,34 @@
       <c r="I6">
         <v>11.5606001729223</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>18831.418000000001</v>
+      </c>
+      <c r="K6">
+        <v>22024.407999999999</v>
+      </c>
+      <c r="L6">
+        <v>58</v>
+      </c>
+      <c r="M6">
+        <v>18735.994999999999</v>
+      </c>
+      <c r="N6">
+        <v>20435.271000000001</v>
+      </c>
+      <c r="O6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D7">
         <v>1441848</v>
@@ -1155,16 +1281,34 @@
       <c r="I7">
         <v>11.888896172934199</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>19174.593000000001</v>
+      </c>
+      <c r="K7">
+        <v>23568.615000000002</v>
+      </c>
+      <c r="L7">
+        <v>58</v>
+      </c>
+      <c r="M7">
+        <v>19080.969000000001</v>
+      </c>
+      <c r="N7">
+        <v>22009.423999999999</v>
+      </c>
+      <c r="O7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D8">
         <v>1445057</v>
@@ -1184,16 +1328,34 @@
       <c r="I8">
         <v>1.76314490961563</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>20109.817999999999</v>
+      </c>
+      <c r="K8">
+        <v>21271.178</v>
+      </c>
+      <c r="L8">
+        <v>58</v>
+      </c>
+      <c r="M8">
+        <v>20095.703000000001</v>
+      </c>
+      <c r="N8">
+        <v>21036.101999999999</v>
+      </c>
+      <c r="O8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D9">
         <v>1445058</v>
@@ -1213,16 +1375,34 @@
       <c r="I9">
         <v>0.66504175009156297</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>20133.384999999998</v>
+      </c>
+      <c r="K9">
+        <v>21033.839</v>
+      </c>
+      <c r="L9">
+        <v>58</v>
+      </c>
+      <c r="M9">
+        <v>20095.703000000001</v>
+      </c>
+      <c r="N9">
+        <v>21036.101999999999</v>
+      </c>
+      <c r="O9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D10">
         <v>1445059</v>
@@ -1242,16 +1422,34 @@
       <c r="I10">
         <v>0.86892949998506697</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>20147.501</v>
+      </c>
+      <c r="K10">
+        <v>21268.915000000001</v>
+      </c>
+      <c r="L10">
+        <v>58</v>
+      </c>
+      <c r="M10">
+        <v>20109.817999999999</v>
+      </c>
+      <c r="N10">
+        <v>21271.178</v>
+      </c>
+      <c r="O10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D11">
         <v>1445060</v>
@@ -1271,16 +1469,34 @@
       <c r="I11">
         <v>4.9354824513002598</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>20181.185000000001</v>
+      </c>
+      <c r="K11">
+        <v>21913.305</v>
+      </c>
+      <c r="L11">
+        <v>58</v>
+      </c>
+      <c r="M11">
+        <v>20142.509999999998</v>
+      </c>
+      <c r="N11">
+        <v>21269.215</v>
+      </c>
+      <c r="O11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D12">
         <v>1476402</v>
@@ -1300,16 +1516,34 @@
       <c r="I12">
         <v>1.54679404769017</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>20438.518</v>
+      </c>
+      <c r="K12">
+        <v>22574.319</v>
+      </c>
+      <c r="L12">
+        <v>58</v>
+      </c>
+      <c r="M12">
+        <v>20452.633999999998</v>
+      </c>
+      <c r="N12">
+        <v>22809.395</v>
+      </c>
+      <c r="O12">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D13">
         <v>1476459</v>
@@ -1329,16 +1563,34 @@
       <c r="I13">
         <v>4.7576155917554397</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>20526.161</v>
+      </c>
+      <c r="K13">
+        <v>23487.457999999999</v>
+      </c>
+      <c r="L13">
+        <v>58</v>
+      </c>
+      <c r="M13">
+        <v>20484.742999999999</v>
+      </c>
+      <c r="N13">
+        <v>22797.7</v>
+      </c>
+      <c r="O13">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D14">
         <v>2347356</v>
@@ -1358,16 +1610,34 @@
       <c r="I14">
         <v>1.3667174999996501</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>18806.974999999999</v>
+      </c>
+      <c r="K14">
+        <v>21617.351999999999</v>
+      </c>
+      <c r="L14">
+        <v>58</v>
+      </c>
+      <c r="M14">
+        <v>19262.404999999999</v>
+      </c>
+      <c r="N14">
+        <v>21590.005000000001</v>
+      </c>
+      <c r="O14">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D15">
         <v>2347799</v>
@@ -1387,16 +1657,34 @@
       <c r="I15">
         <v>0.954477000000436</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>19762.550999999999</v>
+      </c>
+      <c r="K15">
+        <v>21452.319</v>
+      </c>
+      <c r="L15">
+        <v>58</v>
+      </c>
+      <c r="M15">
+        <v>19383.484</v>
+      </c>
+      <c r="N15">
+        <v>21475.080999999998</v>
+      </c>
+      <c r="O15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D16">
         <v>2373268</v>
@@ -1416,16 +1704,34 @@
       <c r="I16">
         <v>1.1234268538879699</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>19383.484</v>
+      </c>
+      <c r="K16">
+        <v>21475.080999999998</v>
+      </c>
+      <c r="L16">
+        <v>58</v>
+      </c>
+      <c r="M16">
+        <v>19397.419999999998</v>
+      </c>
+      <c r="N16">
+        <v>21707.162</v>
+      </c>
+      <c r="O16">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D17">
         <v>2376175</v>
@@ -1445,16 +1751,34 @@
       <c r="I17">
         <v>0.57827175000036102</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>19778.645</v>
+      </c>
+      <c r="K17">
+        <v>21720.335999999999</v>
+      </c>
+      <c r="L17">
+        <v>58</v>
+      </c>
+      <c r="M17">
+        <v>19522.606</v>
+      </c>
+      <c r="N17">
+        <v>21735.71</v>
+      </c>
+      <c r="O17">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D18">
         <v>2388008</v>
@@ -1474,16 +1798,34 @@
       <c r="I18">
         <v>1.32157945082152</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>19762.550999999999</v>
+      </c>
+      <c r="K18">
+        <v>21452.319</v>
+      </c>
+      <c r="L18">
+        <v>58</v>
+      </c>
+      <c r="M18">
+        <v>19792.776000000002</v>
+      </c>
+      <c r="N18">
+        <v>21955.662</v>
+      </c>
+      <c r="O18">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D19">
         <v>2477464</v>
@@ -1503,16 +1845,34 @@
       <c r="I19">
         <v>1.7077283714515401</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>19328.684000000001</v>
+      </c>
+      <c r="K19">
+        <v>21067.132000000001</v>
+      </c>
+      <c r="L19">
+        <v>58</v>
+      </c>
+      <c r="M19">
+        <v>19669.036</v>
+      </c>
+      <c r="N19">
+        <v>21046.695</v>
+      </c>
+      <c r="O19">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D20">
         <v>2477467</v>
@@ -1532,16 +1892,34 @@
       <c r="I20">
         <v>1.81126861925003</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>19699.528999999999</v>
+      </c>
+      <c r="K20">
+        <v>21310.842000000001</v>
+      </c>
+      <c r="L20">
+        <v>58</v>
+      </c>
+      <c r="M20">
+        <v>19344.598000000002</v>
+      </c>
+      <c r="N20">
+        <v>21332.153999999999</v>
+      </c>
+      <c r="O20">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D21">
         <v>2477468</v>
@@ -1561,16 +1939,34 @@
       <c r="I21">
         <v>1.42843349999983</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>19143.079000000002</v>
+      </c>
+      <c r="K21">
+        <v>21104.324000000001</v>
+      </c>
+      <c r="L21">
+        <v>58</v>
+      </c>
+      <c r="M21">
+        <v>19155.876</v>
+      </c>
+      <c r="N21">
+        <v>21317.439999999999</v>
+      </c>
+      <c r="O21">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D22">
         <v>2477844</v>
@@ -1590,16 +1986,34 @@
       <c r="I22">
         <v>4.3597349999994002</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>20103.525000000001</v>
+      </c>
+      <c r="K22">
+        <v>21166.366999999998</v>
+      </c>
+      <c r="L22">
+        <v>58</v>
+      </c>
+      <c r="M22">
+        <v>19469.916000000001</v>
+      </c>
+      <c r="N22">
+        <v>21204.413</v>
+      </c>
+      <c r="O22">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D23">
         <v>2479044</v>
@@ -1619,16 +2033,34 @@
       <c r="I23">
         <v>1.0494459615813101</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>19359.092000000001</v>
+      </c>
+      <c r="K23">
+        <v>21302.421999999999</v>
+      </c>
+      <c r="L23">
+        <v>360</v>
+      </c>
+      <c r="M23">
+        <v>19155.707999999999</v>
+      </c>
+      <c r="N23">
+        <v>21314.634999999998</v>
+      </c>
+      <c r="O23">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D24">
         <v>2493782</v>
@@ -1648,16 +2080,34 @@
       <c r="I24">
         <v>1.5099612287311499</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>19137.45</v>
+      </c>
+      <c r="K24">
+        <v>21110.671999999999</v>
+      </c>
+      <c r="L24">
+        <v>58</v>
+      </c>
+      <c r="M24">
+        <v>19343.329000000002</v>
+      </c>
+      <c r="N24">
+        <v>21098.31</v>
+      </c>
+      <c r="O24">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D25">
         <v>2493924</v>
@@ -1677,16 +2127,34 @@
       <c r="I25">
         <v>0.24643200000279</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>19330.601999999999</v>
+      </c>
+      <c r="K25">
+        <v>21099.074000000001</v>
+      </c>
+      <c r="L25">
+        <v>58</v>
+      </c>
+      <c r="M25">
+        <v>19328.684000000001</v>
+      </c>
+      <c r="N25">
+        <v>21067.132000000001</v>
+      </c>
+      <c r="O25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D26">
         <v>2573915</v>
@@ -1706,16 +2174,34 @@
       <c r="I26">
         <v>0.57662725000046</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>19269.900000000001</v>
+      </c>
+      <c r="K26">
+        <v>21714.82</v>
+      </c>
+      <c r="L26">
+        <v>58</v>
+      </c>
+      <c r="M26">
+        <v>19520.448</v>
+      </c>
+      <c r="N26">
+        <v>21699.775000000001</v>
+      </c>
+      <c r="O26">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D27">
         <v>2586684</v>
@@ -1735,16 +2221,34 @@
       <c r="I27">
         <v>1.6826685000002899</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>19024.967000000001</v>
+      </c>
+      <c r="K27">
+        <v>21218.608</v>
+      </c>
+      <c r="L27">
+        <v>58</v>
+      </c>
+      <c r="M27">
+        <v>18783.901000000002</v>
+      </c>
+      <c r="N27">
+        <v>21233.083999999999</v>
+      </c>
+      <c r="O27">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D28">
         <v>2657732</v>
@@ -1764,16 +2268,34 @@
       <c r="I28">
         <v>11.6359691914226</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>19080.309000000001</v>
+      </c>
+      <c r="K28">
+        <v>21998.442999999999</v>
+      </c>
+      <c r="L28">
+        <v>58</v>
+      </c>
+      <c r="M28">
+        <v>20408.916000000001</v>
+      </c>
+      <c r="N28">
+        <v>21918.665000000001</v>
+      </c>
+      <c r="O28">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D29">
         <v>2662918</v>
@@ -1793,16 +2315,34 @@
       <c r="I29">
         <v>1.81127552238566</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>20026.431</v>
+      </c>
+      <c r="K29">
+        <v>22584.036</v>
+      </c>
+      <c r="L29">
+        <v>58</v>
+      </c>
+      <c r="M29">
+        <v>19671.499</v>
+      </c>
+      <c r="N29">
+        <v>22605.348999999998</v>
+      </c>
+      <c r="O29">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D30">
         <v>2662925</v>
@@ -1822,16 +2362,34 @@
       <c r="I30">
         <v>0.38119950000015801</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>19685.493999999999</v>
+      </c>
+      <c r="K30">
+        <v>22838.429</v>
+      </c>
+      <c r="L30">
+        <v>58</v>
+      </c>
+      <c r="M30">
+        <v>19687.697</v>
+      </c>
+      <c r="N30">
+        <v>22875.113000000001</v>
+      </c>
+      <c r="O30">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D31">
         <v>2662928</v>
@@ -1851,16 +2409,34 @@
       <c r="I31">
         <v>1.6340145000019799</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>19379.731</v>
+      </c>
+      <c r="K31">
+        <v>22755.608</v>
+      </c>
+      <c r="L31">
+        <v>58</v>
+      </c>
+      <c r="M31">
+        <v>19126.687000000002</v>
+      </c>
+      <c r="N31">
+        <v>22770.802</v>
+      </c>
+      <c r="O31">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D32">
         <v>2662992</v>
@@ -1880,16 +2456,34 @@
       <c r="I32">
         <v>4.3607992159460203</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <v>20444.812000000002</v>
+      </c>
+      <c r="K32">
+        <v>22679.13</v>
+      </c>
+      <c r="L32">
+        <v>58</v>
+      </c>
+      <c r="M32">
+        <v>19811.203000000001</v>
+      </c>
+      <c r="N32">
+        <v>22717.175999999999</v>
+      </c>
+      <c r="O32">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D33">
         <v>2663078</v>
@@ -1909,16 +2503,34 @@
       <c r="I33">
         <v>1.8034100410210401</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>19674.685000000001</v>
+      </c>
+      <c r="K33">
+        <v>22871.135999999999</v>
+      </c>
+      <c r="L33">
+        <v>58</v>
+      </c>
+      <c r="M33">
+        <v>20033.04</v>
+      </c>
+      <c r="N33">
+        <v>22849.617999999999</v>
+      </c>
+      <c r="O33">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D34">
         <v>2668701</v>
@@ -1938,16 +2550,34 @@
       <c r="I34">
         <v>1.54255195082145</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>19506.512999999999</v>
+      </c>
+      <c r="K34">
+        <v>21467.692999999999</v>
+      </c>
+      <c r="L34">
+        <v>58</v>
+      </c>
+      <c r="M34">
+        <v>19536.737000000001</v>
+      </c>
+      <c r="N34">
+        <v>21971.036</v>
+      </c>
+      <c r="O34">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D35">
         <v>2671315</v>
@@ -1967,16 +2597,34 @@
       <c r="I35">
         <v>1.64409695082124</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>19245.355</v>
+      </c>
+      <c r="K35">
+        <v>21306.056</v>
+      </c>
+      <c r="L35">
+        <v>58</v>
+      </c>
+      <c r="M35">
+        <v>19286.187999999998</v>
+      </c>
+      <c r="N35">
+        <v>21986.080999999998</v>
+      </c>
+      <c r="O35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D36">
         <v>2673098</v>
@@ -1996,16 +2644,34 @@
       <c r="I36">
         <v>1.4034830000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>18760.796999999999</v>
+      </c>
+      <c r="K36">
+        <v>20848.315999999999</v>
+      </c>
+      <c r="L36">
+        <v>58</v>
+      </c>
+      <c r="M36">
+        <v>19216.226999999999</v>
+      </c>
+      <c r="N36">
+        <v>20820.969000000001</v>
+      </c>
+      <c r="O36">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D37">
         <v>2673099</v>
@@ -2025,16 +2691,34 @@
       <c r="I37">
         <v>1.1317364372704</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <v>19708.891</v>
+      </c>
+      <c r="K37">
+        <v>20884.012999999999</v>
+      </c>
+      <c r="L37">
+        <v>58</v>
+      </c>
+      <c r="M37">
+        <v>19349.29</v>
+      </c>
+      <c r="N37">
+        <v>20905.606</v>
+      </c>
+      <c r="O37">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D38">
         <v>2673104</v>
@@ -2054,16 +2738,34 @@
       <c r="I38">
         <v>1.1818932450555599</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <v>19349.29</v>
+      </c>
+      <c r="K38">
+        <v>20905.606</v>
+      </c>
+      <c r="L38">
+        <v>58</v>
+      </c>
+      <c r="M38">
+        <v>19336.253000000001</v>
+      </c>
+      <c r="N38">
+        <v>20688.496999999999</v>
+      </c>
+      <c r="O38">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D39">
         <v>2673112</v>
@@ -2083,16 +2785,34 @@
       <c r="I39">
         <v>1.5180490373265201</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <v>19151.365000000002</v>
+      </c>
+      <c r="K39">
+        <v>20699.598999999998</v>
+      </c>
+      <c r="L39">
+        <v>58</v>
+      </c>
+      <c r="M39">
+        <v>19695.855</v>
+      </c>
+      <c r="N39">
+        <v>20666.903999999999</v>
+      </c>
+      <c r="O39">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D40">
         <v>2673113</v>
@@ -2112,16 +2832,34 @@
       <c r="I40">
         <v>0.71543859658920905</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <v>19472.316999999999</v>
+      </c>
+      <c r="K40">
+        <v>20898.219000000001</v>
+      </c>
+      <c r="L40">
+        <v>58</v>
+      </c>
+      <c r="M40">
+        <v>19459.280999999999</v>
+      </c>
+      <c r="N40">
+        <v>20681.11</v>
+      </c>
+      <c r="O40">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D41">
         <v>2673119</v>
@@ -2141,16 +2879,34 @@
       <c r="I41">
         <v>0.67078952318047902</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <v>19233.276999999998</v>
+      </c>
+      <c r="K41">
+        <v>21104.918000000001</v>
+      </c>
+      <c r="L41">
+        <v>58</v>
+      </c>
+      <c r="M41">
+        <v>19216.226999999999</v>
+      </c>
+      <c r="N41">
+        <v>20820.969000000001</v>
+      </c>
+      <c r="O41">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D42">
         <v>2677885</v>
@@ -2170,16 +2926,34 @@
       <c r="I42">
         <v>1.2554895000000199</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <v>20155.696</v>
+      </c>
+      <c r="K42">
+        <v>21488.82</v>
+      </c>
+      <c r="L42">
+        <v>58</v>
+      </c>
+      <c r="M42">
+        <v>19766.148000000001</v>
+      </c>
+      <c r="N42">
+        <v>21512.210999999999</v>
+      </c>
+      <c r="O42">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D43">
         <v>2679314</v>
@@ -2199,16 +2973,34 @@
       <c r="I43">
         <v>1.0703222500003999</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <v>20114.308000000001</v>
+      </c>
+      <c r="K43">
+        <v>20799.561000000002</v>
+      </c>
+      <c r="L43">
+        <v>58</v>
+      </c>
+      <c r="M43">
+        <v>19705.294999999998</v>
+      </c>
+      <c r="N43">
+        <v>20824.120999999999</v>
+      </c>
+      <c r="O43">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D44">
         <v>2734751</v>
@@ -2228,16 +3020,34 @@
       <c r="I44">
         <v>1.3667175000002101</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <v>19103.613000000001</v>
+      </c>
+      <c r="K44">
+        <v>22386.534</v>
+      </c>
+      <c r="L44">
+        <v>58</v>
+      </c>
+      <c r="M44">
+        <v>19559.043000000001</v>
+      </c>
+      <c r="N44">
+        <v>22359.187000000002</v>
+      </c>
+      <c r="O44">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D45">
         <v>2734752</v>
@@ -2257,16 +3067,34 @@
       <c r="I45">
         <v>0.97309905555266696</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45">
+        <v>20072.067999999999</v>
+      </c>
+      <c r="K45">
+        <v>22436.034</v>
+      </c>
+      <c r="L45">
+        <v>58</v>
+      </c>
+      <c r="M45">
+        <v>19693.004000000001</v>
+      </c>
+      <c r="N45">
+        <v>22458.795999999998</v>
+      </c>
+      <c r="O45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D46">
         <v>2734755</v>
@@ -2286,16 +3114,34 @@
       <c r="I46">
         <v>1.1566878101937099</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <v>19693.004000000001</v>
+      </c>
+      <c r="K46">
+        <v>22458.795999999998</v>
+      </c>
+      <c r="L46">
+        <v>58</v>
+      </c>
+      <c r="M46">
+        <v>19679.067999999999</v>
+      </c>
+      <c r="N46">
+        <v>22226.715</v>
+      </c>
+      <c r="O46">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D47">
         <v>2734757</v>
@@ -2315,16 +3161,34 @@
       <c r="I47">
         <v>0.78325705555101799</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <v>20055.974999999999</v>
+      </c>
+      <c r="K47">
+        <v>22168.017</v>
+      </c>
+      <c r="L47">
+        <v>58</v>
+      </c>
+      <c r="M47">
+        <v>19799.937999999998</v>
+      </c>
+      <c r="N47">
+        <v>22183.391</v>
+      </c>
+      <c r="O47">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D48">
         <v>2734760</v>
@@ -2344,16 +3208,34 @@
       <c r="I48">
         <v>1.10694774238538</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <v>20072.067999999999</v>
+      </c>
+      <c r="K48">
+        <v>22436.034</v>
+      </c>
+      <c r="L48">
+        <v>58</v>
+      </c>
+      <c r="M48">
+        <v>20042.324000000001</v>
+      </c>
+      <c r="N48">
+        <v>21940.677</v>
+      </c>
+      <c r="O48">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D49">
         <v>2734763</v>
@@ -2373,16 +3255,34 @@
       <c r="I49">
         <v>0.56068703161585698</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <v>19551.547999999999</v>
+      </c>
+      <c r="K49">
+        <v>22234.371999999999</v>
+      </c>
+      <c r="L49">
+        <v>58</v>
+      </c>
+      <c r="M49">
+        <v>19802.096000000001</v>
+      </c>
+      <c r="N49">
+        <v>22219.327000000001</v>
+      </c>
+      <c r="O49">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D50">
         <v>2734771</v>
@@ -2402,16 +3302,34 @@
       <c r="I50">
         <v>1.51697449238514</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50">
+        <v>19816.031999999999</v>
+      </c>
+      <c r="K50">
+        <v>22451.409</v>
+      </c>
+      <c r="L50">
+        <v>58</v>
+      </c>
+      <c r="M50">
+        <v>19786.287</v>
+      </c>
+      <c r="N50">
+        <v>21956.052</v>
+      </c>
+      <c r="O50">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D51">
         <v>2734777</v>
@@ -2431,16 +3349,34 @@
       <c r="I51">
         <v>1.6185209508207099</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51">
+        <v>19576.093000000001</v>
+      </c>
+      <c r="K51">
+        <v>22643.135999999999</v>
+      </c>
+      <c r="L51">
+        <v>58</v>
+      </c>
+      <c r="M51">
+        <v>19535.739000000001</v>
+      </c>
+      <c r="N51">
+        <v>21971.096000000001</v>
+      </c>
+      <c r="O51">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C52" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D52">
         <v>2735641</v>
@@ -2460,16 +3396,34 @@
       <c r="I52">
         <v>1.3667175000002501</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52">
+        <v>19149.791000000001</v>
+      </c>
+      <c r="K52">
+        <v>23155.569</v>
+      </c>
+      <c r="L52">
+        <v>58</v>
+      </c>
+      <c r="M52">
+        <v>19605.221000000001</v>
+      </c>
+      <c r="N52">
+        <v>23128.222000000002</v>
+      </c>
+      <c r="O52">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C53" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D53">
         <v>2735642</v>
@@ -2489,16 +3443,34 @@
       <c r="I53">
         <v>0.95446905555335804</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53">
+        <v>20105.366999999998</v>
+      </c>
+      <c r="K53">
+        <v>22990.576000000001</v>
+      </c>
+      <c r="L53">
+        <v>58</v>
+      </c>
+      <c r="M53">
+        <v>19726.302</v>
+      </c>
+      <c r="N53">
+        <v>23013.338</v>
+      </c>
+      <c r="O53">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D54">
         <v>2735646</v>
@@ -2518,16 +3490,34 @@
       <c r="I54">
         <v>1.2903233250541599</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54">
+        <v>19726.302</v>
+      </c>
+      <c r="K54">
+        <v>23013.338</v>
+      </c>
+      <c r="L54">
+        <v>58</v>
+      </c>
+      <c r="M54">
+        <v>19740.236000000001</v>
+      </c>
+      <c r="N54">
+        <v>23245.38</v>
+      </c>
+      <c r="O54">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B55" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C55" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D55">
         <v>2735648</v>
@@ -2547,16 +3537,34 @@
       <c r="I55">
         <v>0.57826380555082102</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55">
+        <v>20121.46</v>
+      </c>
+      <c r="K55">
+        <v>23258.593000000001</v>
+      </c>
+      <c r="L55">
+        <v>58</v>
+      </c>
+      <c r="M55">
+        <v>19865.423999999999</v>
+      </c>
+      <c r="N55">
+        <v>23273.968000000001</v>
+      </c>
+      <c r="O55">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D56">
         <v>2735651</v>
@@ -2576,16 +3584,34 @@
       <c r="I56">
         <v>1.3534226691773401</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56">
+        <v>20105.366999999998</v>
+      </c>
+      <c r="K56">
+        <v>22990.576000000001</v>
+      </c>
+      <c r="L56">
+        <v>58</v>
+      </c>
+      <c r="M56">
+        <v>20136.608</v>
+      </c>
+      <c r="N56">
+        <v>23510.848999999998</v>
+      </c>
+      <c r="O56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D57">
         <v>2735654</v>
@@ -2605,16 +3631,34 @@
       <c r="I57">
         <v>0.97230200000044897</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57">
+        <v>19489.936000000002</v>
+      </c>
+      <c r="K57">
+        <v>23260.41</v>
+      </c>
+      <c r="L57">
+        <v>58</v>
+      </c>
+      <c r="M57">
+        <v>19863.263999999999</v>
+      </c>
+      <c r="N57">
+        <v>23237.991999999998</v>
+      </c>
+      <c r="O57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D58">
         <v>2735655</v>
@@ -2634,16 +3678,34 @@
       <c r="I58">
         <v>1.57439516917776</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58">
+        <v>19849.330999999998</v>
+      </c>
+      <c r="K58">
+        <v>23005.95</v>
+      </c>
+      <c r="L58">
+        <v>58</v>
+      </c>
+      <c r="M58">
+        <v>19880.571</v>
+      </c>
+      <c r="N58">
+        <v>23526.223000000002</v>
+      </c>
+      <c r="O58">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D59">
         <v>2735660</v>
@@ -2663,16 +3725,34 @@
       <c r="I59">
         <v>0.91599859658980698</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59">
+        <v>19588.170999999998</v>
+      </c>
+      <c r="K59">
+        <v>22844.273000000001</v>
+      </c>
+      <c r="L59">
+        <v>58</v>
+      </c>
+      <c r="M59">
+        <v>19612.716</v>
+      </c>
+      <c r="N59">
+        <v>23253.037</v>
+      </c>
+      <c r="O59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D60">
         <v>2749243</v>
@@ -2692,16 +3772,34 @@
       <c r="I60">
         <v>1.14842146518273</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60">
+        <v>19342.68</v>
+      </c>
+      <c r="K60">
+        <v>21300.212</v>
+      </c>
+      <c r="L60">
+        <v>58</v>
+      </c>
+      <c r="M60">
+        <v>19149.526999999998</v>
+      </c>
+      <c r="N60">
+        <v>21311.81</v>
+      </c>
+      <c r="O60">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D61">
         <v>2749408</v>
@@ -2721,16 +3819,34 @@
       <c r="I61">
         <v>0.44280750000000701</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61">
+        <v>19342.68</v>
+      </c>
+      <c r="K61">
+        <v>21300.212</v>
+      </c>
+      <c r="L61">
+        <v>58</v>
+      </c>
+      <c r="M61">
+        <v>19344.598000000002</v>
+      </c>
+      <c r="N61">
+        <v>21332.153999999999</v>
+      </c>
+      <c r="O61">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D62">
         <v>2756642</v>
@@ -2750,16 +3866,34 @@
       <c r="I62">
         <v>1.1484118604112601</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62">
+        <v>19498.331999999999</v>
+      </c>
+      <c r="K62">
+        <v>22849.668000000001</v>
+      </c>
+      <c r="L62">
+        <v>58</v>
+      </c>
+      <c r="M62">
+        <v>19689.487000000001</v>
+      </c>
+      <c r="N62">
+        <v>22838.188999999998</v>
+      </c>
+      <c r="O62">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D63">
         <v>2756643</v>
@@ -2779,16 +3913,34 @@
       <c r="I63">
         <v>1.14841186041115</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63">
+        <v>19677.41</v>
+      </c>
+      <c r="K63">
+        <v>22637.052</v>
+      </c>
+      <c r="L63">
+        <v>58</v>
+      </c>
+      <c r="M63">
+        <v>19486.255000000001</v>
+      </c>
+      <c r="N63">
+        <v>22648.53</v>
+      </c>
+      <c r="O63">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B64" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C64" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D64">
         <v>2756644</v>
@@ -2808,16 +3960,34 @@
       <c r="I64">
         <v>0.44280749999594599</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64">
+        <v>19673.417000000001</v>
+      </c>
+      <c r="K64">
+        <v>22637.292000000001</v>
+      </c>
+      <c r="L64">
+        <v>58</v>
+      </c>
+      <c r="M64">
+        <v>19671.499</v>
+      </c>
+      <c r="N64">
+        <v>22605.348999999998</v>
+      </c>
+      <c r="O64">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B65" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C65" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D65">
         <v>2758691</v>
@@ -2837,16 +4007,34 @@
       <c r="I65">
         <v>1.19591229541769</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65">
+        <v>19701.91</v>
+      </c>
+      <c r="K65">
+        <v>22840.699000000001</v>
+      </c>
+      <c r="L65">
+        <v>360</v>
+      </c>
+      <c r="M65">
+        <v>19498.526999999998</v>
+      </c>
+      <c r="N65">
+        <v>22852.912</v>
+      </c>
+      <c r="O65">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B66" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C66" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D66">
         <v>2791656</v>
@@ -2866,16 +4054,34 @@
       <c r="I66">
         <v>0.90577563941174699</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66">
+        <v>20490.317999999999</v>
+      </c>
+      <c r="K66">
+        <v>22807.133000000002</v>
+      </c>
+      <c r="L66">
+        <v>58</v>
+      </c>
+      <c r="M66">
+        <v>20452.633999999998</v>
+      </c>
+      <c r="N66">
+        <v>22809.395</v>
+      </c>
+      <c r="O66">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C67" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D67">
         <v>2816671</v>
@@ -2895,16 +4101,34 @@
       <c r="I67">
         <v>5.36017372917774</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67">
+        <v>20471.212</v>
+      </c>
+      <c r="K67">
+        <v>22572.356</v>
+      </c>
+      <c r="L67">
+        <v>58</v>
+      </c>
+      <c r="M67">
+        <v>20430.738000000001</v>
+      </c>
+      <c r="N67">
+        <v>21898.32</v>
+      </c>
+      <c r="O67">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D68">
         <v>2817053</v>
@@ -2924,16 +4148,34 @@
       <c r="I68">
         <v>0.900671403992928</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68">
+        <v>20438.518</v>
+      </c>
+      <c r="K68">
+        <v>22574.319</v>
+      </c>
+      <c r="L68">
+        <v>58</v>
+      </c>
+      <c r="M68">
+        <v>20476.203000000001</v>
+      </c>
+      <c r="N68">
+        <v>22572.056</v>
+      </c>
+      <c r="O68">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C69" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D69">
         <v>2865100</v>
@@ -2953,16 +4195,34 @@
       <c r="I69">
         <v>0.35150500000059998</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69">
+        <v>19689.487000000001</v>
+      </c>
+      <c r="K69">
+        <v>22838.188999999998</v>
+      </c>
+      <c r="L69">
+        <v>58</v>
+      </c>
+      <c r="M69">
+        <v>19677.41</v>
+      </c>
+      <c r="N69">
+        <v>22637.052</v>
+      </c>
+      <c r="O69">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D70">
         <v>2981356</v>
@@ -2982,16 +4242,34 @@
       <c r="I70">
         <v>0.286749000000042</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70">
+        <v>19395.607</v>
+      </c>
+      <c r="K70">
+        <v>21676.967000000001</v>
+      </c>
+      <c r="L70">
+        <v>58</v>
+      </c>
+      <c r="M70">
+        <v>19518.634999999998</v>
+      </c>
+      <c r="N70">
+        <v>21669.579000000002</v>
+      </c>
+      <c r="O70">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C71" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D71">
         <v>2984283</v>
@@ -3011,16 +4289,34 @@
       <c r="I71">
         <v>1.0099998308211999</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71">
+        <v>19158.86</v>
+      </c>
+      <c r="K71">
+        <v>20824.414000000001</v>
+      </c>
+      <c r="L71">
+        <v>58</v>
+      </c>
+      <c r="M71">
+        <v>19134.058000000001</v>
+      </c>
+      <c r="N71">
+        <v>20411.367999999999</v>
+      </c>
+      <c r="O71">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D72">
         <v>3009845</v>
@@ -3040,16 +4336,34 @@
       <c r="I72">
         <v>0.83121999999991203</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72">
+        <v>19555.319</v>
+      </c>
+      <c r="K72">
+        <v>23256.484</v>
+      </c>
+      <c r="L72">
+        <v>58</v>
+      </c>
+      <c r="M72">
+        <v>19572.626</v>
+      </c>
+      <c r="N72">
+        <v>23544.714</v>
+      </c>
+      <c r="O72">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B73" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C73" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D73">
         <v>3118291</v>
@@ -3069,16 +4383,34 @@
       <c r="I73">
         <v>1.15573199480061</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73">
+        <v>20458.026000000002</v>
+      </c>
+      <c r="K73">
+        <v>22352.751</v>
+      </c>
+      <c r="L73">
+        <v>58</v>
+      </c>
+      <c r="M73">
+        <v>20068.472000000002</v>
+      </c>
+      <c r="N73">
+        <v>22376.143</v>
+      </c>
+      <c r="O73">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B74" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C74" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D74">
         <v>3118293</v>
@@ -3098,16 +4430,34 @@
       <c r="I74">
         <v>1.15573199480052</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74">
+        <v>20498.513999999999</v>
+      </c>
+      <c r="K74">
+        <v>23027.037</v>
+      </c>
+      <c r="L74">
+        <v>58</v>
+      </c>
+      <c r="M74">
+        <v>20108.960999999999</v>
+      </c>
+      <c r="N74">
+        <v>23050.428</v>
+      </c>
+      <c r="O74">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C75" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D75">
         <v>3199261</v>
@@ -3127,16 +4477,34 @@
       <c r="I75">
         <v>3.2367303960070402</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75">
+        <v>20430.738000000001</v>
+      </c>
+      <c r="K75">
+        <v>21898.32</v>
+      </c>
+      <c r="L75">
+        <v>58</v>
+      </c>
+      <c r="M75">
+        <v>20181.185000000001</v>
+      </c>
+      <c r="N75">
+        <v>21913.305</v>
+      </c>
+      <c r="O75">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C76" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D76">
         <v>3231003</v>
@@ -3156,16 +4524,34 @@
       <c r="I76">
         <v>0.39531600000022699</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J76">
+        <v>19029.562999999998</v>
+      </c>
+      <c r="K76">
+        <v>21195.041000000001</v>
+      </c>
+      <c r="L76">
+        <v>58</v>
+      </c>
+      <c r="M76">
+        <v>19037.384999999998</v>
+      </c>
+      <c r="N76">
+        <v>21325.306</v>
+      </c>
+      <c r="O76">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C77" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D77">
         <v>3231005</v>
@@ -3185,16 +4571,34 @@
       <c r="I77">
         <v>0.36240000000004002</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J77">
+        <v>19138.609</v>
+      </c>
+      <c r="K77">
+        <v>21242.59</v>
+      </c>
+      <c r="L77">
+        <v>58</v>
+      </c>
+      <c r="M77">
+        <v>19032.798999999999</v>
+      </c>
+      <c r="N77">
+        <v>21248.944</v>
+      </c>
+      <c r="O77">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C78" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D78">
         <v>3231779</v>
@@ -3214,16 +4618,34 @@
       <c r="I78">
         <v>0.160811999999595</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78">
+        <v>19016.511999999999</v>
+      </c>
+      <c r="K78">
+        <v>21111.171999999999</v>
+      </c>
+      <c r="L78">
+        <v>58</v>
+      </c>
+      <c r="M78">
+        <v>19130.307000000001</v>
+      </c>
+      <c r="N78">
+        <v>21104.339</v>
+      </c>
+      <c r="O78">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C79" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D79">
         <v>3244379</v>
@@ -3243,16 +4665,34 @@
       <c r="I79">
         <v>0.350280000000396</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J79">
+        <v>19375.494999999999</v>
+      </c>
+      <c r="K79">
+        <v>22785.164000000001</v>
+      </c>
+      <c r="L79">
+        <v>58</v>
+      </c>
+      <c r="M79">
+        <v>19367.313999999998</v>
+      </c>
+      <c r="N79">
+        <v>22648.91</v>
+      </c>
+      <c r="O79">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C80" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D80">
         <v>3244384</v>
@@ -3272,16 +4712,34 @@
       <c r="I80">
         <v>0.16081199999996099</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80">
+        <v>19372.215</v>
+      </c>
+      <c r="K80">
+        <v>22864.003000000001</v>
+      </c>
+      <c r="L80">
+        <v>58</v>
+      </c>
+      <c r="M80">
+        <v>19486.009999999998</v>
+      </c>
+      <c r="N80">
+        <v>22857.17</v>
+      </c>
+      <c r="O80">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B81" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C81" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D81">
         <v>3244385</v>
@@ -3301,16 +4759,34 @@
       <c r="I81">
         <v>0.17530800000007399</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81">
+        <v>19473.123</v>
+      </c>
+      <c r="K81">
+        <v>22642.556</v>
+      </c>
+      <c r="L81">
+        <v>58</v>
+      </c>
+      <c r="M81">
+        <v>19367.313999999998</v>
+      </c>
+      <c r="N81">
+        <v>22648.91</v>
+      </c>
+      <c r="O81">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B82" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C82" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D82">
         <v>3314422</v>
@@ -3330,16 +4806,34 @@
       <c r="I82">
         <v>0.28674900000126602</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82">
+        <v>19680.89</v>
+      </c>
+      <c r="K82">
+        <v>22257.062999999998</v>
+      </c>
+      <c r="L82">
+        <v>58</v>
+      </c>
+      <c r="M82">
+        <v>19803.919000000002</v>
+      </c>
+      <c r="N82">
+        <v>22249.674999999999</v>
+      </c>
+      <c r="O82">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B83" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C83" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D83">
         <v>3324300</v>
@@ -3359,16 +4853,34 @@
       <c r="I83">
         <v>0.279727499999882</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J83">
+        <v>19804.154999999999</v>
+      </c>
+      <c r="K83">
+        <v>20994.001</v>
+      </c>
+      <c r="L83">
+        <v>58</v>
+      </c>
+      <c r="M83">
+        <v>19807.062000000002</v>
+      </c>
+      <c r="N83">
+        <v>21042.414000000001</v>
+      </c>
+      <c r="O83">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B84" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C84" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D84">
         <v>3324305</v>
@@ -3388,16 +4900,34 @@
       <c r="I84">
         <v>0.29150549999999797</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84">
+        <v>19666.368999999999</v>
+      </c>
+      <c r="K84">
+        <v>21002.275000000001</v>
+      </c>
+      <c r="L84">
+        <v>58</v>
+      </c>
+      <c r="M84">
+        <v>19669.276000000002</v>
+      </c>
+      <c r="N84">
+        <v>21050.687000000002</v>
+      </c>
+      <c r="O84">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B85" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C85" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D85">
         <v>3324306</v>
@@ -3417,16 +4947,34 @@
       <c r="I85">
         <v>0.81288523639119403</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85">
+        <v>19666.368999999999</v>
+      </c>
+      <c r="K85">
+        <v>21002.275000000001</v>
+      </c>
+      <c r="L85">
+        <v>58</v>
+      </c>
+      <c r="M85">
+        <v>19804.154999999999</v>
+      </c>
+      <c r="N85">
+        <v>20994.001</v>
+      </c>
+      <c r="O85">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B86" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C86" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D86">
         <v>3325570</v>
@@ -3446,16 +4994,34 @@
       <c r="I86">
         <v>0.30622799999922301</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86">
+        <v>20124.982</v>
+      </c>
+      <c r="K86">
+        <v>22548.565999999999</v>
+      </c>
+      <c r="L86">
+        <v>58</v>
+      </c>
+      <c r="M86">
+        <v>20126.990000000002</v>
+      </c>
+      <c r="N86">
+        <v>22582.005000000001</v>
+      </c>
+      <c r="O86">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B87" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C87" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D87">
         <v>3325571</v>
@@ -3475,16 +5041,34 @@
       <c r="I87">
         <v>0.47700899999896201</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J87">
+        <v>20124.982</v>
+      </c>
+      <c r="K87">
+        <v>22548.565999999999</v>
+      </c>
+      <c r="L87">
+        <v>58</v>
+      </c>
+      <c r="M87">
+        <v>20024.663</v>
+      </c>
+      <c r="N87">
+        <v>22554.59</v>
+      </c>
+      <c r="O87">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B88" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C88" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D88">
         <v>3325573</v>
@@ -3504,16 +5088,34 @@
       <c r="I88">
         <v>0.428084999998946</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J88">
+        <v>20126.990000000002</v>
+      </c>
+      <c r="K88">
+        <v>22582.005000000001</v>
+      </c>
+      <c r="L88">
+        <v>58</v>
+      </c>
+      <c r="M88">
+        <v>19998.017</v>
+      </c>
+      <c r="N88">
+        <v>22589.75</v>
+      </c>
+      <c r="O88">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B89" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C89" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D89">
         <v>3325874</v>
@@ -3533,16 +5135,34 @@
       <c r="I89">
         <v>0.30622799999981998</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89">
+        <v>20115.678</v>
+      </c>
+      <c r="K89">
+        <v>22874.208999999999</v>
+      </c>
+      <c r="L89">
+        <v>58</v>
+      </c>
+      <c r="M89">
+        <v>20113.669999999998</v>
+      </c>
+      <c r="N89">
+        <v>22840.769</v>
+      </c>
+      <c r="O89">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B90" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C90" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D90">
         <v>3325875</v>
@@ -3562,16 +5182,34 @@
       <c r="I90">
         <v>0.41968246360885098</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J90">
+        <v>20115.678</v>
+      </c>
+      <c r="K90">
+        <v>22874.208999999999</v>
+      </c>
+      <c r="L90">
+        <v>58</v>
+      </c>
+      <c r="M90">
+        <v>20025.076000000001</v>
+      </c>
+      <c r="N90">
+        <v>22879.649000000001</v>
+      </c>
+      <c r="O90">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B91" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C91" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D91">
         <v>3325876</v>
@@ -3591,16 +5229,34 @@
       <c r="I91">
         <v>0.18702449999981999</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J91">
+        <v>20025.076000000001</v>
+      </c>
+      <c r="K91">
+        <v>22879.649000000001</v>
+      </c>
+      <c r="L91">
+        <v>58</v>
+      </c>
+      <c r="M91">
+        <v>20023.067999999999</v>
+      </c>
+      <c r="N91">
+        <v>22846.208999999999</v>
+      </c>
+      <c r="O91">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B92" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C92" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D92">
         <v>3325877</v>
@@ -3620,16 +5276,34 @@
       <c r="I92">
         <v>0.40298124999999102</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J92">
+        <v>20113.669999999998</v>
+      </c>
+      <c r="K92">
+        <v>22840.769</v>
+      </c>
+      <c r="L92">
+        <v>58</v>
+      </c>
+      <c r="M92">
+        <v>20027.825000000001</v>
+      </c>
+      <c r="N92">
+        <v>22845.923999999999</v>
+      </c>
+      <c r="O92">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B93" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C93" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D93">
         <v>3337863</v>
@@ -3649,16 +5323,34 @@
       <c r="I93">
         <v>0.28674900000162001</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93">
+        <v>19738.424999999999</v>
+      </c>
+      <c r="K93">
+        <v>23215.223999999998</v>
+      </c>
+      <c r="L93">
+        <v>58</v>
+      </c>
+      <c r="M93">
+        <v>19861.453000000001</v>
+      </c>
+      <c r="N93">
+        <v>23207.837</v>
+      </c>
+      <c r="O93">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B94" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C94" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D94">
         <v>3338520</v>
@@ -3678,16 +5370,34 @@
       <c r="I94">
         <v>0.28674767141125501</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94">
+        <v>19461.094000000001</v>
+      </c>
+      <c r="K94">
+        <v>20711.305</v>
+      </c>
+      <c r="L94">
+        <v>58</v>
+      </c>
+      <c r="M94">
+        <v>19338.065999999999</v>
+      </c>
+      <c r="N94">
+        <v>20718.692999999999</v>
+      </c>
+      <c r="O94">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B95" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C95" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D95">
         <v>3354733</v>
@@ -3707,16 +5417,34 @@
       <c r="I95">
         <v>0.30008550000270601</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95">
+        <v>20024.663</v>
+      </c>
+      <c r="K95">
+        <v>22554.59</v>
+      </c>
+      <c r="L95">
+        <v>58</v>
+      </c>
+      <c r="M95">
+        <v>20026.670999999998</v>
+      </c>
+      <c r="N95">
+        <v>22588.028999999999</v>
+      </c>
+      <c r="O95">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B96" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C96" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D96">
         <v>3365155</v>
@@ -3736,16 +5464,34 @@
       <c r="I96">
         <v>0.30008550000005302</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96">
+        <v>19801.616999999998</v>
+      </c>
+      <c r="K96">
+        <v>21334.264999999999</v>
+      </c>
+      <c r="L96">
+        <v>58</v>
+      </c>
+      <c r="M96">
+        <v>19799.609</v>
+      </c>
+      <c r="N96">
+        <v>21300.825000000001</v>
+      </c>
+      <c r="O96">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B97" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C97" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D97">
         <v>3365156</v>
@@ -3765,16 +5511,34 @@
       <c r="I97">
         <v>0.47700900000001201</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97">
+        <v>19801.616999999998</v>
+      </c>
+      <c r="K97">
+        <v>21334.264999999999</v>
+      </c>
+      <c r="L97">
+        <v>58</v>
+      </c>
+      <c r="M97">
+        <v>19701.296999999999</v>
+      </c>
+      <c r="N97">
+        <v>21340.289000000001</v>
+      </c>
+      <c r="O97">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B98" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C98" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D98">
         <v>3365157</v>
@@ -3794,16 +5558,34 @@
       <c r="I98">
         <v>0.30622799999955902</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J98">
+        <v>19701.296999999999</v>
+      </c>
+      <c r="K98">
+        <v>21340.289000000001</v>
+      </c>
+      <c r="L98">
+        <v>58</v>
+      </c>
+      <c r="M98">
+        <v>19699.29</v>
+      </c>
+      <c r="N98">
+        <v>21306.848999999998</v>
+      </c>
+      <c r="O98">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B99" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C99" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D99">
         <v>3471180</v>
@@ -3823,16 +5605,34 @@
       <c r="I99">
         <v>3.9863584980705101E-2</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J99">
+        <v>19363.759999999998</v>
+      </c>
+      <c r="K99">
+        <v>22756.566999999999</v>
+      </c>
+      <c r="L99">
+        <v>58</v>
+      </c>
+      <c r="M99">
+        <v>19365.753000000001</v>
+      </c>
+      <c r="N99">
+        <v>22789.757000000001</v>
+      </c>
+      <c r="O99">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B100" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C100" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D100">
         <v>3471329</v>
@@ -3852,16 +5652,34 @@
       <c r="I100">
         <v>0.25520399999972698</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J100">
+        <v>19372.575000000001</v>
+      </c>
+      <c r="K100">
+        <v>22869.991999999998</v>
+      </c>
+      <c r="L100">
+        <v>58</v>
+      </c>
+      <c r="M100">
+        <v>19367.989000000001</v>
+      </c>
+      <c r="N100">
+        <v>22793.63</v>
+      </c>
+      <c r="O100">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B101" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C101" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D101">
         <v>3471462</v>
@@ -3881,16 +5699,34 @@
       <c r="I101">
         <v>3.9863584980853302E-2</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J101">
+        <v>19020.973999999998</v>
+      </c>
+      <c r="K101">
+        <v>21218.848000000002</v>
+      </c>
+      <c r="L101">
+        <v>58</v>
+      </c>
+      <c r="M101">
+        <v>19018.981</v>
+      </c>
+      <c r="N101">
+        <v>21185.657999999999</v>
+      </c>
+      <c r="O101">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B102" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C102" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D102">
         <v>3471463</v>
@@ -3910,16 +5746,34 @@
       <c r="I102">
         <v>0.25520399999974402</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102">
+        <v>19016.151999999998</v>
+      </c>
+      <c r="K102">
+        <v>21105.183000000001</v>
+      </c>
+      <c r="L102">
+        <v>58</v>
+      </c>
+      <c r="M102">
+        <v>19020.738000000001</v>
+      </c>
+      <c r="N102">
+        <v>21181.544999999998</v>
+      </c>
+      <c r="O102">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B103" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C103" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D103">
         <v>3924178</v>
@@ -3939,16 +5793,34 @@
       <c r="I103">
         <v>0.83121999999969798</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J103">
+        <v>19380.921999999999</v>
+      </c>
+      <c r="K103">
+        <v>20685.814999999999</v>
+      </c>
+      <c r="L103">
+        <v>58</v>
+      </c>
+      <c r="M103">
+        <v>19363.614000000001</v>
+      </c>
+      <c r="N103">
+        <v>20397.583999999999</v>
+      </c>
+      <c r="O103">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B104" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C104" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D104">
         <v>3925910</v>
@@ -3968,16 +5840,34 @@
       <c r="I104">
         <v>0.71882761457688105</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J104">
+        <v>19708.891</v>
+      </c>
+      <c r="K104">
+        <v>20884.012999999999</v>
+      </c>
+      <c r="L104">
+        <v>58</v>
+      </c>
+      <c r="M104">
+        <v>19678.546999999999</v>
+      </c>
+      <c r="N104">
+        <v>20378.672999999999</v>
+      </c>
+      <c r="O104">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B105" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C105" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D105">
         <v>4033220</v>
@@ -3997,16 +5887,34 @@
       <c r="I105">
         <v>0.36230570388738198</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J105">
+        <v>19334.595000000001</v>
+      </c>
+      <c r="K105">
+        <v>21098.833999999999</v>
+      </c>
+      <c r="L105">
+        <v>58</v>
+      </c>
+      <c r="M105">
+        <v>19346.672999999999</v>
+      </c>
+      <c r="N105">
+        <v>21299.972000000002</v>
+      </c>
+      <c r="O105">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B106" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C106" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D106">
         <v>4200547</v>
@@ -4025,6 +5933,24 @@
       </c>
       <c r="I106">
         <v>5.4131778544779001</v>
+      </c>
+      <c r="J106">
+        <v>22031.248</v>
+      </c>
+      <c r="K106">
+        <v>23807.22</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>22523.744999999999</v>
+      </c>
+      <c r="N106">
+        <v>21476.179</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4042,7 +5968,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>190</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -4358,19 +6284,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -4378,7 +6304,7 @@
         <v>1592883</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>103</v>
@@ -4395,7 +6321,7 @@
         <v>1593049</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>103</v>
@@ -4412,7 +6338,7 @@
         <v>2151055</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>103</v>
@@ -4429,7 +6355,7 @@
         <v>2692414</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>103</v>
@@ -4446,7 +6372,7 @@
         <v>2831607</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>103</v>
@@ -4463,7 +6389,7 @@
         <v>2831898</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>103</v>
@@ -4480,7 +6406,7 @@
         <v>3009692</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>103</v>
@@ -4497,7 +6423,7 @@
         <v>3009693</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>103</v>
@@ -4514,7 +6440,7 @@
         <v>3539933</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>67</v>
@@ -4531,7 +6457,7 @@
         <v>3540215</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>67</v>
